--- a/src/test/resources/testdata/TestNGTestData.xlsx
+++ b/src/test/resources/testdata/TestNGTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcbel\IdeaProjects\CucumberFramework\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcbel\IdeaProjects\TestNGFramework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945F08E0-C843-4CAE-864D-8DCCB299F9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECB17D8-95CE-45BB-8C54-D079662FE8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27810" yWindow="3045" windowWidth="18900" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="1395" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>MiddleName</t>
   </si>
@@ -66,37 +66,25 @@
     <t>Su</t>
   </si>
   <si>
-    <t>Amon</t>
-  </si>
-  <si>
-    <t>Mara</t>
-  </si>
-  <si>
     <t>C:\Users\pcbel\Downloads\pic.jpg</t>
   </si>
   <si>
-    <t>Sarı895</t>
-  </si>
-  <si>
-    <t>Ali45ppda74</t>
-  </si>
-  <si>
-    <t>Suden1122</t>
-  </si>
-  <si>
-    <t>Saffa86522</t>
-  </si>
-  <si>
-    <t>alippli1236823</t>
-  </si>
-  <si>
-    <t>dedesırrı123523</t>
-  </si>
-  <si>
-    <t>sden1234223</t>
-  </si>
-  <si>
-    <t>Saraa1231123</t>
+    <t>Ali45psad4da74</t>
+  </si>
+  <si>
+    <t>Splwsari895</t>
+  </si>
+  <si>
+    <t>Sudes95n1122</t>
+  </si>
+  <si>
+    <t>sden123afaw43</t>
+  </si>
+  <si>
+    <t>dedaae87523</t>
+  </si>
+  <si>
+    <t>alipxxpli1823</t>
   </si>
 </sst>
 </file>
@@ -436,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +462,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -483,10 +471,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -494,7 +482,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -503,10 +491,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -514,7 +502,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -523,32 +511,12 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -557,9 +525,8 @@
     <hyperlink ref="F2" r:id="rId1" xr:uid="{4537E5EF-F3C4-4ECB-87F7-166ED60D70EC}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{BF21C6D8-F7C5-41E6-98C4-F5B816A47366}"/>
     <hyperlink ref="F4" r:id="rId3" xr:uid="{0FAE6914-5939-443A-9D8B-74D5FF90EA80}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{B070063A-0AD0-45DC-82C8-9D168360FE3E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/TestNGTestData.xlsx
+++ b/src/test/resources/testdata/TestNGTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcbel\IdeaProjects\TestNGFramework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECB17D8-95CE-45BB-8C54-D079662FE8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFB0C97-FEA5-4B6C-A4F6-C5E6ACC0EFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="1395" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,22 +69,22 @@
     <t>C:\Users\pcbel\Downloads\pic.jpg</t>
   </si>
   <si>
-    <t>Ali45psad4da74</t>
-  </si>
-  <si>
-    <t>Splwsari895</t>
-  </si>
-  <si>
-    <t>Sudes95n1122</t>
-  </si>
-  <si>
-    <t>sden123afaw43</t>
-  </si>
-  <si>
-    <t>dedaae87523</t>
-  </si>
-  <si>
-    <t>alipxxpli1823</t>
+    <t>adli45psa74</t>
+  </si>
+  <si>
+    <t>Ss455n1122</t>
+  </si>
+  <si>
+    <t>apdfljff11</t>
+  </si>
+  <si>
+    <t>alipa1li1823</t>
+  </si>
+  <si>
+    <t>dedaa456</t>
+  </si>
+  <si>
+    <t>sden1245</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +474,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -514,7 +514,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
